--- a/formatInputData/solicitud datos establecimiento.xlsx
+++ b/formatInputData/solicitud datos establecimiento.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\horario\formatInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8D2E1-3BDC-4BB5-9686-AF860BA4CBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622123E9-50A5-4C6A-BD90-8F1318F6E480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CE7E602-2E87-4EC4-8B4C-587A77F488F1}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="74">
   <si>
     <t>P1</t>
   </si>
@@ -235,6 +235,33 @@
   </si>
   <si>
     <t>Ejemplo de docente P2 que no puede asistir ningún día a primera hora</t>
+  </si>
+  <si>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Lunch break</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Class period</t>
+  </si>
+  <si>
+    <t>Successful example with 2 consecutive Math periods</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Successful example with 3 consecutive Math periods (two are consecutive and one is free to be given at any time)</t>
+  </si>
+  <si>
+    <t>Classes should have preferred or banned times (eg1. not after lunch. eg2 early in the morning)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +318,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -300,11 +333,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,6 +374,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,9 +700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1496C42-1C70-4F46-82F3-2D0539507F78}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -659,23 +726,197 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="5"/>
+      <c r="E3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="5"/>
+      <c r="E5" s="13">
+        <v>2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E11" s="13">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" s="15">
+        <v>9</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -686,7 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C8FE1-CE1C-46DF-A488-2F0E20554BA3}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1036,7 +1279,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,7 +1416,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,11 +1619,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DBC80D-2030-4F26-B77D-2948BC62A181}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -1790,6 +2037,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1798,7 +2046,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,12 +2137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D6992BC31F23C84390573D6A5D4C4757" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="042a85b69b3d12f9c5aa160cb9dcc0e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6c118bc-35d9-4f62-b9cb-6a3342de6e45" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="359c77376c2ea6261ba5b4e343a7a05e" ns3:_="">
     <xsd:import namespace="f6c118bc-35d9-4f62-b9cb-6a3342de6e45"/>
@@ -2026,6 +2268,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2036,22 +2284,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4535EC9F-3928-4467-91A0-206624F10DD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6c118bc-35d9-4f62-b9cb-6a3342de6e45"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7615BAD-411A-4ABC-A695-8907F6795DC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2069,6 +2301,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4535EC9F-3928-4467-91A0-206624F10DD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f6c118bc-35d9-4f62-b9cb-6a3342de6e45"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C48176AF-9496-48BB-B581-79861B8BFDE2}">
   <ds:schemaRefs>
